--- a/data/income_statement/3digits/total/282_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/282_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>282-Manufacture of other general-purpose machinery</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>282-Manufacture of other general-purpose machinery</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>6472510.491060001</v>
+        <v>6472510.49106</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>7714459.683680001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>10487007.05599</v>
+        <v>10487965.47766</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>11275286.0659</v>
+        <v>11275964.39283</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>12951923.17397</v>
+        <v>12993119.80986</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>15383068.49365</v>
+        <v>15398190.94239</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>17209199.95744</v>
+        <v>17412458.12206</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>18962502.66636</v>
+        <v>19491779.1663</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>25037055.70802</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>33666314.04104</v>
+        <v>33691180.79317</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>36695853.88196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>36852900.21474</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>48128441.759</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>4920203.32128</v>
@@ -995,37 +906,42 @@
         <v>6011367.92563</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>8069358.111299999</v>
+        <v>8070316.53297</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8776335.168059999</v>
+        <v>8776941.18279</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10040188.13421</v>
+        <v>10077477.49799</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>11706131.24066</v>
+        <v>11719885.00695</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13348828.19259</v>
+        <v>13480376.85405</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>14564191.87095</v>
+        <v>15057242.65897</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>19148954.98573</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>25077634.29704</v>
+        <v>25098327.54023</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>25562113.79401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25684712.81363</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>33827745.344</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1495024.40892</v>
@@ -1037,34 +953,39 @@
         <v>2291024.4065</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2374728.57416</v>
+        <v>2374794.89736</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2790841.28592</v>
+        <v>2794419.913380001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3526255.16331</v>
+        <v>3527390.33255</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3687174.47778</v>
+        <v>3750543.54936</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4167200.53595</v>
+        <v>4202659.53095</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>5569765.73996</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>8135093.917640002</v>
+        <v>8138880.575219999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>10610629.34387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10642582.59751</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>13656034.339</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>57282.76086</v>
@@ -1076,34 +997,39 @@
         <v>126624.53819</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>124222.32368</v>
+        <v>124228.31268</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>120893.75384</v>
+        <v>121222.39849</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>150682.08968</v>
+        <v>150915.60289</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>173197.28707</v>
+        <v>181537.71865</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>231110.25946</v>
+        <v>231876.97638</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>318334.98233</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>453585.8263600001</v>
+        <v>453972.67772</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>523110.74408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>525604.8036</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>644662.076</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>117003.66976</v>
@@ -1118,76 +1044,86 @@
         <v>227627.21735</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>221600.42993</v>
+        <v>224320.99963</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>261297.13594</v>
+        <v>261384.91535</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>293644.40691</v>
+        <v>296559.06859</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>377404.66821</v>
+        <v>378525.75666</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>497068.8460699999</v>
+        <v>497068.84607</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>644363.00524</v>
+        <v>644399.0752000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>674151.00241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>675197.7943499999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1062738.251</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>47478.52004</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>49332.57695999999</v>
+        <v>49332.57696</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>62929.01879</v>
+        <v>62929.01878999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>74833.5926</v>
+        <v>74833.59259999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>82192.21217</v>
+        <v>82221.15642999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>117652.46186</v>
+        <v>117728.61925</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>140241.28172</v>
+        <v>141858.99955</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>192393.65297</v>
+        <v>193394.43122</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>271744.85361</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>359370.88032</v>
+        <v>359406.12276</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>357709.52816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>358722.30002</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>596257.545</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>47806.70956</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>90011.34020999999</v>
+        <v>90011.34021000001</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>122520.85931</v>
@@ -1196,31 +1132,36 @@
         <v>131380.80829</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>116099.93929</v>
+        <v>118791.56473</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>108792.50951</v>
+        <v>108801.75107</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>116510.35162</v>
+        <v>116891.69124</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>137797.82744</v>
+        <v>137858.86956</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>145698.91612</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>173604.40617</v>
+        <v>173605.23369</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>216028.14614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>216056.47672</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>310838.852</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>21718.44016</v>
@@ -1238,67 +1179,77 @@
         <v>23308.27847</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>34852.16457</v>
+        <v>34854.54503</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>36892.77357</v>
+        <v>37808.3778</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>47213.18780000001</v>
+        <v>47272.45587999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>79625.07634</v>
+        <v>79625.07633999999</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>111387.71875</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>100413.32811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>100419.01761</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>155641.854</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>6355506.8213</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>7555380.94856</v>
+        <v>7555380.948559999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>10281761.18613</v>
+        <v>10282719.6078</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>11047658.84855</v>
+        <v>11048337.17548</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>12730322.74404</v>
+        <v>12768798.81023</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>15121771.35771</v>
+        <v>15136806.02704</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>16915555.55053</v>
+        <v>17115899.05347</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>18585097.99815</v>
+        <v>19113253.40964</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>24539986.86195</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>33021951.0358</v>
+        <v>33046781.71797</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>36021702.87955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>36177702.42039</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>47065703.508</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>5090448.29688</v>
@@ -1307,37 +1258,42 @@
         <v>6158203.64889</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>8336541.91169</v>
+        <v>8337008.261710001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>9025422.31099</v>
+        <v>9025901.925659999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10300318.55745</v>
+        <v>10332652.20233</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>12210472.77248</v>
+        <v>12221776.74421</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>13607996.31551</v>
+        <v>13765732.91394</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>14855303.23864</v>
+        <v>15318613.4424</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>19747336.96923</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>26250026.92704</v>
+        <v>26272079.85407</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>28766258.96364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>28893616.41597</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>37239724.229</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3789555.76099</v>
@@ -1346,37 +1302,42 @@
         <v>4636279.49492</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6371502.019120001</v>
+        <v>6371968.369139999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6935009.80048</v>
+        <v>6935170.17014</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7847977.08991</v>
+        <v>7872370.556780001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>9175044.43761</v>
+        <v>9178709.143829999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>10476559.91189</v>
+        <v>10597517.98582</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>11242627.83135</v>
+        <v>11668498.65279</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>15075892.91033</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>20511488.96349</v>
+        <v>20523887.19632</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>22973759.03559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>23066278.06238</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>29746204.956</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>824812.39699</v>
@@ -1388,34 +1349,39 @@
         <v>1260675.00266</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1367403.93896</v>
+        <v>1367723.18397</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1634464.8452</v>
+        <v>1641242.33897</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2075763.17622</v>
+        <v>2083142.98174</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2202340.64787</v>
+        <v>2228978.37725</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2455962.905</v>
+        <v>2489249.65355</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>3210880.69492</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4020690.763689999</v>
+        <v>4028148.09422</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3990568.227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4026048.13353</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5662981.876</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>366022.18308</v>
@@ -1430,31 +1396,36 @@
         <v>523487.27275</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>576017.34172</v>
+        <v>577180.02596</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>843604.02773</v>
+        <v>843863.48772</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>729490.98513</v>
+        <v>739631.78025</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>920377.88226</v>
+        <v>922939.5321000001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1131594.06405</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1343075.14957</v>
+        <v>1345272.51324</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1451576.27834</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1450204.48681</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1287289.908</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>110057.95582</v>
@@ -1478,7 +1449,7 @@
         <v>199604.77062</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>236334.62003</v>
+        <v>237925.60396</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>328969.29993</v>
@@ -1487,13 +1458,18 @@
         <v>374772.05029</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>350355.42271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>351085.73325</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>543247.4889999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1265058.52442</v>
@@ -1502,76 +1478,86 @@
         <v>1397177.29967</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1945219.27444</v>
+        <v>1945711.34609</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2022236.53756</v>
+        <v>2022435.24982</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2430004.18659</v>
+        <v>2436146.6079</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2911298.58523</v>
+        <v>2915029.28283</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3307559.23502</v>
+        <v>3350166.13953</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3729794.75951</v>
+        <v>3794639.96724</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4792649.89272</v>
+        <v>4792649.892719999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6771924.10876</v>
+        <v>6774701.863899999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7255443.91591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7284086.00442</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9825979.278999999</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>754847.16327</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>883933.0873499999</v>
+        <v>883933.08735</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1082103.40414</v>
+        <v>1082347.51416</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1258033.17295</v>
+        <v>1258416.64939</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1414748.80612</v>
+        <v>1418543.44629</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1630472.50061</v>
+        <v>1632888.14089</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1854397.38486</v>
+        <v>1892781.89958</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2126312.54295</v>
+        <v>2174990.74526</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2569094.30865</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3383915.48974</v>
+        <v>3391115.82815</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3935501.65116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3958198.21443</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4526804.725</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>20537.68365</v>
@@ -1592,10 +1578,10 @@
         <v>42596.56263</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>48871.59378</v>
+        <v>50232.8724</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>68062.09110999999</v>
+        <v>69411.10794</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>89115.65985</v>
@@ -1604,13 +1590,18 @@
         <v>107342.77866</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>141830.78661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>141572.89154</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>185272.023</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>274735.01058</v>
@@ -1622,34 +1613,39 @@
         <v>420338.4902000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>484522.62153</v>
+        <v>484632.53602</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>533123.66951</v>
+        <v>533317.4620200001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>605898.9705000001</v>
+        <v>606371.56938</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>689789.38101</v>
+        <v>701905.86599</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>760576.55122</v>
+        <v>790353.22084</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>971208.0149099999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1323221.22375</v>
+        <v>1323964.72315</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1519040.06402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1526235.92719</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1723841.067</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>459574.46904</v>
@@ -1658,37 +1654,42 @@
         <v>519515.84502</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>633438.75612</v>
+        <v>633682.8661399999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>743339.3293400001</v>
+        <v>743612.8912899999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>843813.78494</v>
+        <v>847414.6326</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>981976.96748</v>
+        <v>983920.00888</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1115736.41007</v>
+        <v>1140643.16119</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1297673.90062</v>
+        <v>1315226.41648</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1508770.63389</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1953351.48733</v>
+        <v>1959808.32634</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2274630.80053</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2290389.3957</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2617691.635</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>510211.36115</v>
@@ -1697,37 +1698,42 @@
         <v>513244.2123199999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>863115.8703000001</v>
+        <v>863363.8319300001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>764203.36461</v>
+        <v>764018.6004300001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1015255.38047</v>
+        <v>1017603.16161</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1280826.08462</v>
+        <v>1282141.14194</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1453161.85016</v>
+        <v>1457384.23995</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1603482.21656</v>
+        <v>1619649.22198</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2223555.58407</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3388008.61902</v>
+        <v>3383586.03575</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3319942.26475</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3325887.78999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>5299174.554</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>228349.31339</v>
@@ -1736,37 +1742,42 @@
         <v>230612.26322</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>342008.63388</v>
+        <v>342008.89876</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>313528.85807</v>
+        <v>313529.38839</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>479449.8178199999</v>
+        <v>480038.6457</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>534435.7695200001</v>
+        <v>534590.6298</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>929012.8544200001</v>
+        <v>956160.35604</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>944276.3557799999</v>
+        <v>978557.83866</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1269278.7037</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3635989.36313</v>
+        <v>3639788.81319</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2336518.60261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2339881.86134</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4095799.138</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>793.91166</v>
@@ -1778,7 +1789,7 @@
         <v>4656.3966</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>6883.442369999999</v>
+        <v>6883.44237</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>2844.82277</v>
@@ -1799,13 +1810,18 @@
         <v>9165.067949999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>9221.3914</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>9221.391399999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>22046.26</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2878.24549</v>
@@ -1814,10 +1830,10 @@
         <v>7349.63718</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>7391.38341</v>
+        <v>7391.383409999999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>18879.68419</v>
+        <v>18879.68418999999</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>15882.16342</v>
@@ -1835,16 +1851,21 @@
         <v>994.77199</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>33533.19755</v>
+        <v>33544.08942</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>65117.5434</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>141687.042</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>28606.03857</v>
@@ -1853,37 +1874,42 @@
         <v>26393.42245</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>30074.91642</v>
+        <v>30074.91642000001</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>36321.12456</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>40262.81633</v>
+        <v>40460.28494000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>47654.72066</v>
+        <v>47719.43556000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>62666.20221</v>
+        <v>63473.08196000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>55862.58605</v>
+        <v>56291.60838</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>88968.73673999998</v>
+        <v>88968.73673999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>129049.49388</v>
+        <v>129071.72452</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>168786.31002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>169671.21553</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>148985.636</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1573.63144</v>
@@ -1895,7 +1921,7 @@
         <v>1768.62886</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>962.5983700000002</v>
+        <v>962.59837</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>5575.788449999999</v>
@@ -1907,7 +1933,7 @@
         <v>1417.51051</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1181.68931</v>
+        <v>1387.40161</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>3694.9354</v>
@@ -1918,17 +1944,22 @@
       <c r="M29" s="48" t="n">
         <v>4457.923</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>6181.798</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>5859.873769999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>5199.875980000001</v>
+        <v>5199.87598</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>5349.07425</v>
@@ -1943,64 +1974,74 @@
         <v>9350.550499999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5271.96587</v>
+        <v>5360.979310000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>7895.98892</v>
+        <v>8257.286030000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>10369.9598</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>31934.37098</v>
+        <v>31947.81407</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>40354.39216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>40375.86616000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>68156.10799999999</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1139.3514</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>990.90169</v>
+        <v>990.9016899999999</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>1061.22986</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>974.7548200000001</v>
+        <v>975.01546</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4119.88245</v>
+        <v>4119.94128</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>3396.41351</v>
+        <v>3427.75418</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1669.33971</v>
+        <v>1795.70895</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>17001.55099</v>
+        <v>17015.08668</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>16699.93205</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>44580.10178</v>
+        <v>44586.11246</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>47800.18903999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>48317.00333</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>23905.107</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>150388.50274</v>
@@ -2009,37 +2050,42 @@
         <v>146345.33419</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>250520.85705</v>
+        <v>250521.12193</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>186078.19141</v>
+        <v>186078.46109</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>349393.0586</v>
+        <v>349649.24502</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>391139.9393</v>
+        <v>391198.70401</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>699479.21135</v>
+        <v>722241.8078499999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>657297.7801100001</v>
+        <v>690175.12369</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1016431.99038</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3204891.61098</v>
+        <v>3208137.15041</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1827475.46872</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1829245.3311</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3477700.744</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2360.93203</v>
@@ -2057,7 +2103,7 @@
         <v>4245.69825</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>6268.43421</v>
+        <v>6268.434209999999</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>10839.69248</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>15095.44258</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>11646.622</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>52.54397</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>196.88896</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>135.56</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>34696.28232</v>
@@ -2132,31 +2188,36 @@
         <v>52409.95025</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>46202.65993</v>
+        <v>46337.77395</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>64050.53438999999</v>
+        <v>64050.57439</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>67527.91051</v>
+        <v>70890.55319999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>93198.28317</v>
+        <v>93592.85503999999</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>113162.45782</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>151448.89331</v>
+        <v>151950.22766</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>158013.05333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>158183.25588</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>195354.261</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>190026.35927</v>
@@ -2165,37 +2226,42 @@
         <v>181695.1197</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>317680.9321900001</v>
+        <v>317681.59394</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>238466.30203</v>
+        <v>238469.1287</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>370958.61013</v>
+        <v>372595.16043</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>441744.25153</v>
+        <v>441951.96254</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>692399.81227</v>
+        <v>722856.4118299999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>651853.10466</v>
+        <v>689441.8095799999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1067631.35252</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2904831.19691</v>
+        <v>2908208.36439</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1748029.12005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1751973.5922</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2725016.169</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2949.80754</v>
@@ -2207,16 +2273,16 @@
         <v>4699.83317</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>7634.639389999999</v>
+        <v>7636.03953</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>7754.56739</v>
+        <v>7754.567389999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>10983.71088</v>
+        <v>10983.73173</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>14485.78028</v>
+        <v>14490.75919</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>12825.25331</v>
@@ -2228,13 +2294,18 @@
         <v>26062.08857</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>22662.14188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>22683.30563</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>49317.149</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>26293.7482</v>
@@ -2246,7 +2317,7 @@
         <v>28293.96189</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>29607.29412000001</v>
+        <v>29607.29412</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>39184.63136</v>
@@ -2255,10 +2326,10 @@
         <v>42799.80995999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>46693.45607</v>
+        <v>47461.62697999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>48889.02401000001</v>
+        <v>49324.15976</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>54351.74174</v>
@@ -2267,22 +2338,27 @@
         <v>101646.88891</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>99453.07687</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>102303.97405</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>98171.55899999999</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>346.2349800000001</v>
+        <v>346.23498</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>361.27799</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>5494.33747</v>
+        <v>5494.337469999999</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>1662.58423</v>
@@ -2291,10 +2367,10 @@
         <v>1310.15288</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>4122.37592</v>
+        <v>4149.11954</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>11322.3621</v>
+        <v>11387.4775</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>5071.874769999999</v>
@@ -2306,13 +2382,18 @@
         <v>11250.67629</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>10351.18622</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>10485.06815</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2229.576</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>142336.55548</v>
@@ -2321,37 +2402,42 @@
         <v>136217.44369</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>241779.82685</v>
+        <v>241780.4886</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>171397.09609</v>
+        <v>171398.52262</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>291969.36999</v>
+        <v>293605.92029</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>338972.76873</v>
+        <v>339065.50568</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>564758.95923</v>
+        <v>594153.73621</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>521589.28635</v>
+        <v>558074.5943199999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>830359.65902</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2649478.66682</v>
+        <v>2652833.94402</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1491834.23448</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1492851.62185</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2465845.73</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1487.67463</v>
@@ -2366,7 +2452,7 @@
         <v>1360.38023</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>6629.980140000001</v>
+        <v>6629.98014</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>5846.24974</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>14340.50612</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>13122.203</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>175.17338</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>8.160170000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>167.042</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>16437.16506</v>
@@ -2447,28 +2543,33 @@
         <v>24020.85411</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>39014.35415</v>
+        <v>39102.56374</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>43131.53571</v>
+        <v>43355.09307</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>48247.70805</v>
+        <v>48915.96925</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>111811.47846</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>93544.08556000001</v>
+        <v>93565.97584</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>109379.81431</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>109300.95623</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>96162.91</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>132909.9397</v>
@@ -2477,37 +2578,42 @@
         <v>110518.1157</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>234666.00321</v>
+        <v>234672.53096</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>180499.41943</v>
+        <v>180530.03316</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>307819.35899</v>
+        <v>308663.15005</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>285565.90082</v>
+        <v>285717.11472</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>408541.2370499999</v>
+        <v>414276.01749</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>462122.45409</v>
+        <v>464530.20747</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>627873.83336</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1246179.12189</v>
+        <v>1248997.12433</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>959144.2219599999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>962964.91651</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1296425.471</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>124124.92296</v>
@@ -2516,37 +2622,42 @@
         <v>100338.23574</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>186748.01607</v>
+        <v>186754.54382</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>170074.64431</v>
+        <v>170102.98256</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>290938.45928</v>
+        <v>291782.25034</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>257360.0495</v>
+        <v>257511.2634</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>344115.15066</v>
+        <v>347400.39696</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>390462.4671</v>
+        <v>392785.61879</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>539326.95514</v>
+        <v>539326.9551400001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1168236.30419</v>
+        <v>1171054.30663</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>866017.57101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>869720.48127</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1171985.459</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>8785.016740000001</v>
@@ -2558,7 +2669,7 @@
         <v>47917.98714</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>10424.77512</v>
+        <v>10427.0506</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>16880.89971</v>
@@ -2567,10 +2678,10 @@
         <v>28205.85132</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>64426.08639</v>
+        <v>66875.62053</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>71659.98699</v>
+        <v>71744.58867999999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>88546.87822</v>
@@ -2579,13 +2690,18 @@
         <v>77942.81769999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>93126.65095000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>93244.43523999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>124440.012</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>415624.37557</v>
@@ -2594,37 +2710,42 @@
         <v>451643.24014</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>652777.56878</v>
+        <v>653018.6057899999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>658766.50122</v>
+        <v>658548.82696</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>815927.2291699999</v>
+        <v>816383.4968300001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1087951.70179</v>
+        <v>1089062.69448</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1281233.65526</v>
+        <v>1276412.16667</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1433783.01359</v>
+        <v>1444235.04359</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1797329.10189</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2872987.66335</v>
+        <v>2866169.36022</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2949287.52535</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2950831.14262</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>5373532.052</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>44906.75733000001</v>
@@ -2636,34 +2757,39 @@
         <v>69273.10198000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>79833.27908999998</v>
+        <v>79932.44792000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>91599.50328</v>
+        <v>91613.60981000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>124828.13827</v>
+        <v>124872.60089</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>130450.27425</v>
+        <v>131345.63424</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>168575.83905</v>
+        <v>170247.74733</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>197275.69453</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>227226.4611099999</v>
+        <v>227354.04082</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>275601.15482</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>277887.56197</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>336627.053</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2606.51421</v>
@@ -2684,28 +2810,33 @@
         <v>1229.65791</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1088.26492</v>
+        <v>1234.92579</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3377.42013</v>
+        <v>3394.81657</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>6161.614699999999</v>
+        <v>6161.6147</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>7192.43523</v>
+        <v>7192.435230000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5380.967900000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5040.490849999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>6547.66</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>42300.24312</v>
+        <v>42300.24312000001</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>33531.8114</v>
@@ -2714,34 +2845,39 @@
         <v>68180.06075999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>77305.92104</v>
+        <v>77405.08987000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>89684.84081000001</v>
+        <v>89698.94734</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>123598.48036</v>
+        <v>123642.94298</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>129362.00933</v>
+        <v>130110.70845</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>165198.41892</v>
+        <v>166852.93076</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>191114.07983</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>220034.02588</v>
+        <v>220161.60559</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>270220.1869199999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>272847.07112</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>330079.393</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>33723.45708</v>
@@ -2750,46 +2886,51 @@
         <v>40277.35266</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>257993.41485</v>
+        <v>257995.15691</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>55929.17509999999</v>
+        <v>55929.46564</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>74566.59322</v>
+        <v>74793.03960999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>238701.59508</v>
+        <v>238841.94764</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>71496.34658</v>
+        <v>81145.90609999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>259095.9135</v>
+        <v>260215.36093</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>115928.06809</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>366041.62636</v>
+        <v>368844.99904</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>182941.17031</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>184281.60788</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>277756.683</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2570.68351</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>5945.054349999999</v>
+        <v>5945.05435</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>6430.08758</v>
+        <v>6430.087580000001</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>5759.895860000001</v>
@@ -2798,28 +2939,33 @@
         <v>5310.605890000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>5760.43774</v>
+        <v>5767.102980000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>5705.280699999999</v>
+        <v>5749.704460000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>5147.196449999999</v>
+        <v>5147.19645</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>3037.25809</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>30525.61642</v>
+        <v>30581.85465</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>9620.531279999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>9748.66732</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>11586.647</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2134.96858</v>
@@ -2837,28 +2983,33 @@
         <v>8848.47741</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8320.27939</v>
+        <v>8332.568289999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3530.42013</v>
+        <v>3549.885479999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6959.922890000001</v>
+        <v>7094.50141</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>20194.85854</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>14159.54163</v>
+        <v>14161.49991</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>8446.218339999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8446.408640000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9492.732</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>29017.80499</v>
@@ -2867,115 +3018,130 @@
         <v>32150.72052</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>247795.3814</v>
+        <v>247797.12346</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>46548.87933</v>
+        <v>46549.16987</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>60407.50992</v>
+        <v>60633.95631</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>224620.87795</v>
+        <v>224742.27637</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>62260.64575</v>
+        <v>71846.31616</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>246988.79416</v>
+        <v>247973.66307</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>92695.95146000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>321356.46831</v>
+        <v>324101.64448</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>164874.42069</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>166086.53192</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>256677.304</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>426807.6758200001</v>
+        <v>426807.6758199999</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>445137.50398</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>464057.25591</v>
+        <v>464296.55086</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>682670.60521</v>
+        <v>682551.80924</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>832960.13923</v>
+        <v>833204.0670299999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>974078.2449800002</v>
+        <v>975093.34773</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1340187.58293</v>
+        <v>1326611.89481</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1343262.93914</v>
+        <v>1354267.42999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1878676.72833</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2734172.4981</v>
+        <v>2724678.402</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3041947.50986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3044437.09671</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>5432402.422</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>85685.97155</v>
+        <v>85685.97154999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>89915.49254000001</v>
+        <v>89915.49253999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>132538.58173</v>
+        <v>132586.78913</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>126894.69054</v>
+        <v>126904.83644</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>164537.84229</v>
+        <v>164727.19731</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>200098.02716</v>
+        <v>200383.88188</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>230166.7</v>
+        <v>230308.60044</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>245644.16542</v>
+        <v>247789.21806</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>315524.27885</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>530229.5061</v>
+        <v>530354.8538599999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>494601.91825</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>497825.09068</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>891098.966</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>341121.70427</v>
@@ -2984,34 +3150,37 @@
         <v>355222.01144</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>331518.67418</v>
+        <v>331709.76173</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>555775.91467</v>
+        <v>555646.9728</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>668422.29694</v>
+        <v>668476.8697200001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>773980.2178199999</v>
+        <v>774709.4658499999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1110020.88293</v>
+        <v>1096303.29437</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1097618.77372</v>
+        <v>1106478.21193</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1563152.44948</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2203942.992</v>
+        <v>2194323.54814</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2547345.59161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2546612.00603</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>4541303.456</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2856</v>
@@ -3038,34 +3210,37 @@
         <v>2950</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3128</v>
+        <v>3132</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3118</v>
+        <v>3123</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3192</v>
+        <v>3201</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3282</v>
+        <v>3309</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3381</v>
+        <v>3402</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3590</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3491</v>
+        <v>3783</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3558</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3953</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>